--- a/data/results/Krammer Results.xlsx
+++ b/data/results/Krammer Results.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesgleason/Documents/GitHub/reshaping-pod-b/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163802A3-8F9D-2848-866B-6533AC299A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C064B02F-0294-0A45-999D-FC4E785AAA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3280" yWindow="760" windowWidth="26040" windowHeight="14940" xr2:uid="{0BD96FC8-5AD1-3749-AECE-7C3EFEAD316E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$150</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Sample ID</t>
   </si>
@@ -493,119 +492,16 @@
   </si>
   <si>
     <t>AUC</t>
-  </si>
-  <si>
-    <t>Participant ID</t>
-  </si>
-  <si>
-    <t>FAKE007</t>
-  </si>
-  <si>
-    <t>FAKE010</t>
-  </si>
-  <si>
-    <t>FAKE013</t>
-  </si>
-  <si>
-    <t>FAKE016</t>
-  </si>
-  <si>
-    <t>FAKE002</t>
-  </si>
-  <si>
-    <t>FAKE005</t>
-  </si>
-  <si>
-    <t>FAKE008</t>
-  </si>
-  <si>
-    <t>FAKE011</t>
-  </si>
-  <si>
-    <t>FAKE014</t>
-  </si>
-  <si>
-    <t>FAKE017</t>
-  </si>
-  <si>
-    <t>FAKE003</t>
-  </si>
-  <si>
-    <t>FAKE006</t>
-  </si>
-  <si>
-    <t>FAKE009</t>
-  </si>
-  <si>
-    <t>FAKE012</t>
-  </si>
-  <si>
-    <t>FAKE015</t>
-  </si>
-  <si>
-    <t>FAKE001</t>
-  </si>
-  <si>
-    <t>FAKE004</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Infection Pre-Vaccine?</t>
-  </si>
-  <si>
-    <t>Infection Date</t>
-  </si>
-  <si>
-    <t>Vaccine Type</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Pfizer</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Moderna</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Vaccine Date 1</t>
-  </si>
-  <si>
-    <t>Vaccine Date 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -638,11 +534,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A71F97-7803-6044-8883-576D6DB65095}">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,7 +871,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>200</v>
       </c>
     </row>
@@ -985,7 +879,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1000</v>
       </c>
     </row>
@@ -993,7 +887,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1001,7 +895,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1240.4557400000001</v>
       </c>
     </row>
@@ -1009,7 +903,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1767.076986</v>
       </c>
     </row>
@@ -1017,7 +911,7 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1025,7 +919,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1033,7 +927,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>1000</v>
       </c>
     </row>
@@ -1041,7 +935,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1049,7 +943,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>4000</v>
       </c>
     </row>
@@ -1057,7 +951,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>3928.0626550000002</v>
       </c>
     </row>
@@ -1065,7 +959,7 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>14589.30344</v>
       </c>
     </row>
@@ -1073,7 +967,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>1200</v>
       </c>
     </row>
@@ -1081,7 +975,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>6000</v>
       </c>
     </row>
@@ -1089,7 +983,7 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>1009.627113</v>
       </c>
     </row>
@@ -1097,7 +991,7 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>12792.63579</v>
       </c>
     </row>
@@ -1105,7 +999,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>51075.882210000003</v>
       </c>
     </row>
@@ -1113,7 +1007,7 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>12580.02419</v>
       </c>
     </row>
@@ -1121,7 +1015,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>5668.8619349999999</v>
       </c>
     </row>
@@ -1129,7 +1023,7 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>3310.8697689999999</v>
       </c>
     </row>
@@ -1137,7 +1031,7 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>4307.1336890000002</v>
       </c>
     </row>
@@ -1145,7 +1039,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>7620.2091959999998</v>
       </c>
     </row>
@@ -1153,7 +1047,7 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>4617.5755129999998</v>
       </c>
     </row>
@@ -1161,7 +1055,7 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>2859.3639109999999</v>
       </c>
     </row>
@@ -1169,7 +1063,7 @@
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>5243.4018050000004</v>
       </c>
     </row>
@@ -1177,7 +1071,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>2044.936494</v>
       </c>
     </row>
@@ -1185,7 +1079,7 @@
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>3156.8443269999998</v>
       </c>
     </row>
@@ -1193,7 +1087,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>1460.4647669999999</v>
       </c>
     </row>
@@ -1201,7 +1095,7 @@
       <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>2041.350152</v>
       </c>
     </row>
@@ -1209,7 +1103,7 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>1281.213131</v>
       </c>
     </row>
@@ -1217,7 +1111,7 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>1307.043633</v>
       </c>
     </row>
@@ -1225,7 +1119,7 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>11132.124610000001</v>
       </c>
     </row>
@@ -1233,7 +1127,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>3468.2576680000002</v>
       </c>
     </row>
@@ -1241,7 +1135,7 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>25890.810130000002</v>
       </c>
     </row>
@@ -1249,7 +1143,7 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>6878.0564960000002</v>
       </c>
     </row>
@@ -1257,7 +1151,7 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>31275.830379999999</v>
       </c>
     </row>
@@ -1265,7 +1159,7 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>19832.080559999999</v>
       </c>
     </row>
@@ -1273,7 +1167,7 @@
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>11023.052079999999</v>
       </c>
     </row>
@@ -1281,7 +1175,7 @@
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>36774.133009999998</v>
       </c>
     </row>
@@ -1289,7 +1183,7 @@
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>3715.8672190000002</v>
       </c>
     </row>
@@ -1297,7 +1191,7 @@
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>792.87105029999998</v>
       </c>
     </row>
@@ -1305,7 +1199,7 @@
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>742.19617389999996</v>
       </c>
     </row>
@@ -1313,7 +1207,7 @@
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>1681.3833509999999</v>
       </c>
     </row>
@@ -1321,7 +1215,7 @@
       <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>4794.0888089999999</v>
       </c>
     </row>
@@ -1329,7 +1223,7 @@
       <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>3725.1362570000001</v>
       </c>
     </row>
@@ -1337,7 +1231,7 @@
       <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>3366.3294759999999</v>
       </c>
     </row>
@@ -1345,7 +1239,7 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>4994.340792</v>
       </c>
     </row>
@@ -1353,7 +1247,7 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>9796.6357200000002</v>
       </c>
     </row>
@@ -1361,7 +1255,7 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>96857.577590000001</v>
       </c>
     </row>
@@ -1369,7 +1263,7 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>11781.437169999999</v>
       </c>
     </row>
@@ -1377,7 +1271,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>8579.5569140000007</v>
       </c>
     </row>
@@ -1385,7 +1279,7 @@
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>3981.066988</v>
       </c>
     </row>
@@ -1393,7 +1287,7 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>6715.9817890000004</v>
       </c>
     </row>
@@ -1401,7 +1295,7 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>6083.0282040000002</v>
       </c>
     </row>
@@ -1409,7 +1303,7 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>3815.4785139999999</v>
       </c>
     </row>
@@ -1417,7 +1311,7 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>2719.7268640000002</v>
       </c>
     </row>
@@ -1425,7 +1319,7 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>886.17593969999996</v>
       </c>
     </row>
@@ -1433,7 +1327,7 @@
       <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>5188.6058300000004</v>
       </c>
     </row>
@@ -1441,7 +1335,7 @@
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <v>431.46635470000001</v>
       </c>
     </row>
@@ -1449,7 +1343,7 @@
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="1">
         <v>1608.878199</v>
       </c>
     </row>
@@ -1457,7 +1351,7 @@
       <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="1">
         <v>625.54423559999998</v>
       </c>
     </row>
@@ -1465,7 +1359,7 @@
       <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <v>542.24983269999996</v>
       </c>
     </row>
@@ -1473,7 +1367,7 @@
       <c r="A64" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="1">
         <v>723.64217729999996</v>
       </c>
     </row>
@@ -1481,7 +1375,7 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>3336.597154</v>
       </c>
     </row>
@@ -1489,7 +1383,7 @@
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>2754.7142359999998</v>
       </c>
     </row>
@@ -1497,7 +1391,7 @@
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <v>14332.47417</v>
       </c>
     </row>
@@ -1505,7 +1399,7 @@
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="1">
         <v>2943.0461270000001</v>
       </c>
     </row>
@@ -1513,7 +1407,7 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="1">
         <v>11341.12565</v>
       </c>
     </row>
@@ -1521,7 +1415,7 @@
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="1">
         <v>4870.6852330000002</v>
       </c>
     </row>
@@ -1529,7 +1423,7 @@
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <v>3805.171186</v>
       </c>
     </row>
@@ -1537,7 +1431,7 @@
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="1">
         <v>1069.723326</v>
       </c>
     </row>
@@ -1545,7 +1439,7 @@
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <v>4598.5257039999997</v>
       </c>
     </row>
@@ -1553,7 +1447,7 @@
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <v>1635.6676399999999</v>
       </c>
     </row>
@@ -1561,7 +1455,7 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <v>588.37630639999998</v>
       </c>
     </row>
@@ -1569,7 +1463,7 @@
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="1">
         <v>752.09491690000004</v>
       </c>
     </row>
@@ -1577,7 +1471,7 @@
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="1">
         <v>1203.313022</v>
       </c>
     </row>
@@ -1585,7 +1479,7 @@
       <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="1">
         <v>1775.715586</v>
       </c>
     </row>
@@ -1593,7 +1487,7 @@
       <c r="A79" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="1">
         <v>1775.035214</v>
       </c>
     </row>
@@ -1601,7 +1495,7 @@
       <c r="A80" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="1">
         <v>585.07763969999996</v>
       </c>
     </row>
@@ -1609,7 +1503,7 @@
       <c r="A81" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="1">
         <v>3047.9296909999998</v>
       </c>
     </row>
@@ -1617,7 +1511,7 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="1">
         <v>1404.6836519999999</v>
       </c>
     </row>
@@ -1625,7 +1519,7 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="1">
         <v>7775.309679</v>
       </c>
     </row>
@@ -1633,7 +1527,7 @@
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="1">
         <v>3056.2781540000001</v>
       </c>
     </row>
@@ -1641,7 +1535,7 @@
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="1">
         <v>2876.5595010000002</v>
       </c>
     </row>
@@ -1649,7 +1543,7 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="1">
         <v>5462.9040109999996</v>
       </c>
     </row>
@@ -1657,7 +1551,7 @@
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <v>1814.7487819999999</v>
       </c>
     </row>
@@ -1665,7 +1559,7 @@
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="1">
         <v>1658.0744830000001</v>
       </c>
     </row>
@@ -1673,7 +1567,7 @@
       <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="1">
         <v>2269.1188870000001</v>
       </c>
     </row>
@@ -1681,7 +1575,7 @@
       <c r="A90" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="1">
         <v>2925.186987</v>
       </c>
     </row>
@@ -1689,7 +1583,7 @@
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="1">
         <v>451.31069760000003</v>
       </c>
     </row>
@@ -1697,7 +1591,7 @@
       <c r="A92" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="1">
         <v>310.84319950000003</v>
       </c>
     </row>
@@ -1705,7 +1599,7 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="1">
         <v>672.65126520000001</v>
       </c>
     </row>
@@ -1713,7 +1607,7 @@
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="1">
         <v>814.55772860000002</v>
       </c>
     </row>
@@ -1721,7 +1615,7 @@
       <c r="A95" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="1">
         <v>1973.4031359999999</v>
       </c>
     </row>
@@ -1729,7 +1623,7 @@
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="1">
         <v>2610.2790610000002</v>
       </c>
     </row>
@@ -1737,7 +1631,7 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="1">
         <v>244.0179373</v>
       </c>
     </row>
@@ -1745,7 +1639,7 @@
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="1">
         <v>3304.3833330000002</v>
       </c>
     </row>
@@ -1753,7 +1647,7 @@
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="1">
         <v>2579.7372049999999</v>
       </c>
     </row>
@@ -1761,7 +1655,7 @@
       <c r="A100" t="s">
         <v>89</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="1">
         <v>7945.6709870000004</v>
       </c>
     </row>
@@ -1769,7 +1663,7 @@
       <c r="A101" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="1">
         <v>216.75445690000001</v>
       </c>
     </row>
@@ -1777,7 +1671,7 @@
       <c r="A102" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="1">
         <v>538.59421989999998</v>
       </c>
     </row>
@@ -1785,7 +1679,7 @@
       <c r="A103" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="1">
         <v>408.29874949999999</v>
       </c>
     </row>
@@ -1793,7 +1687,7 @@
       <c r="A104" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="1">
         <v>894.60065269999996</v>
       </c>
     </row>
@@ -1801,7 +1695,7 @@
       <c r="A105" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="1">
         <v>353.93300040000003</v>
       </c>
     </row>
@@ -1809,7 +1703,7 @@
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="1">
         <v>1560.380502</v>
       </c>
     </row>
@@ -1817,7 +1711,7 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="1">
         <v>323.0872809</v>
       </c>
     </row>
@@ -1825,7 +1719,7 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="1">
         <v>3549.3605539999999</v>
       </c>
     </row>
@@ -1833,7 +1727,7 @@
       <c r="A109" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="1">
         <v>1712.4202439999999</v>
       </c>
     </row>
@@ -1841,7 +1735,7 @@
       <c r="A110" t="s">
         <v>102</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="1">
         <v>4194.9580409999999</v>
       </c>
     </row>
@@ -1849,7 +1743,7 @@
       <c r="A111" t="s">
         <v>103</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="1">
         <v>5960.8970449999997</v>
       </c>
     </row>
@@ -1857,7 +1751,7 @@
       <c r="A112" t="s">
         <v>104</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="1">
         <v>2314.1794500000001</v>
       </c>
     </row>
@@ -1865,7 +1759,7 @@
       <c r="A113" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="1">
         <v>3512.3689770000001</v>
       </c>
     </row>
@@ -1873,7 +1767,7 @@
       <c r="A114" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="1">
         <v>368.8468641</v>
       </c>
     </row>
@@ -1881,7 +1775,7 @@
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="1">
         <v>274.32626649999997</v>
       </c>
     </row>
@@ -1889,7 +1783,7 @@
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="1">
         <v>8059.3407909999996</v>
       </c>
     </row>
@@ -1897,7 +1791,7 @@
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="1">
         <v>1861.0049280000001</v>
       </c>
     </row>
@@ -1905,7 +1799,7 @@
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="1">
         <v>3099.3378069999999</v>
       </c>
     </row>
@@ -1913,7 +1807,7 @@
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="1">
         <v>694.58659090000003</v>
       </c>
     </row>
@@ -1921,7 +1815,7 @@
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="1">
         <v>5301.8486489999996</v>
       </c>
     </row>
@@ -1929,7 +1823,7 @@
       <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="1">
         <v>447.4218482</v>
       </c>
     </row>
@@ -1937,7 +1831,7 @@
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="1">
         <v>269.55760609999999</v>
       </c>
     </row>
@@ -1945,7 +1839,7 @@
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="1">
         <v>647.55806580000001</v>
       </c>
     </row>
@@ -1953,7 +1847,7 @@
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="1">
         <v>563.49039540000001</v>
       </c>
     </row>
@@ -1961,7 +1855,7 @@
       <c r="A125" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="1">
         <v>6522.5195199999998</v>
       </c>
     </row>
@@ -1969,7 +1863,7 @@
       <c r="A126" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="1">
         <v>617.15703199999996</v>
       </c>
     </row>
@@ -1977,7 +1871,7 @@
       <c r="A127" t="s">
         <v>123</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="1">
         <v>873.3512528</v>
       </c>
     </row>
@@ -1985,7 +1879,7 @@
       <c r="A128" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="1">
         <v>739.20870760000003</v>
       </c>
     </row>
@@ -1993,7 +1887,7 @@
       <c r="A129" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="1">
         <v>40.628896410000003</v>
       </c>
     </row>
@@ -2001,7 +1895,7 @@
       <c r="A130" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="1">
         <v>250.56856740000001</v>
       </c>
     </row>
@@ -2009,7 +1903,7 @@
       <c r="A131" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="1">
         <v>1044.844842</v>
       </c>
     </row>
@@ -2017,7 +1911,7 @@
       <c r="A132" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="1">
         <v>848.52712529999997</v>
       </c>
     </row>
@@ -2025,7 +1919,7 @@
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="1">
         <v>1383.454207</v>
       </c>
     </row>
@@ -2033,7 +1927,7 @@
       <c r="A134" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="1">
         <v>1897.1313640000001</v>
       </c>
     </row>
@@ -2041,7 +1935,7 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="1">
         <v>4047.317591</v>
       </c>
     </row>
@@ -2049,7 +1943,7 @@
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="1">
         <v>6955.0912369999996</v>
       </c>
     </row>
@@ -2057,7 +1951,7 @@
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="1">
         <v>1058.776347</v>
       </c>
     </row>
@@ -2065,7 +1959,7 @@
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="1">
         <v>2381.2545329999998</v>
       </c>
     </row>
@@ -2073,7 +1967,7 @@
       <c r="A139" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="1">
         <v>585.02037740000003</v>
       </c>
     </row>
@@ -2081,7 +1975,7 @@
       <c r="A140" t="s">
         <v>147</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="1">
         <v>140.6461228</v>
       </c>
     </row>
@@ -2089,7 +1983,7 @@
       <c r="A141" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="1">
         <v>280.28236249999998</v>
       </c>
     </row>
@@ -2097,7 +1991,7 @@
       <c r="A142" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="1">
         <v>84.267531759999997</v>
       </c>
     </row>
@@ -2105,7 +1999,7 @@
       <c r="A143" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="1">
         <v>435.0895615</v>
       </c>
     </row>
@@ -2113,7 +2007,7 @@
       <c r="A144" t="s">
         <v>139</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="1">
         <v>61.68121635</v>
       </c>
     </row>
@@ -2121,7 +2015,7 @@
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="1">
         <v>208.86675550000001</v>
       </c>
     </row>
@@ -2129,7 +2023,7 @@
       <c r="A146" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="1">
         <v>271.5933364</v>
       </c>
     </row>
@@ -2137,7 +2031,7 @@
       <c r="A147" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="1">
         <v>476.97226719999998</v>
       </c>
     </row>
@@ -2145,7 +2039,7 @@
       <c r="A148" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="1">
         <v>4271.5184989999998</v>
       </c>
     </row>
@@ -2153,7 +2047,7 @@
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="1">
         <v>385.5708856</v>
       </c>
     </row>
@@ -2161,7 +2055,7 @@
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="1">
         <v>674.97846549999997</v>
       </c>
     </row>
@@ -2169,487 +2063,4 @@
   <autoFilter ref="A1:B150" xr:uid="{02A71F97-7803-6044-8883-576D6DB65095}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A7CC9F-8E8B-8545-9F0A-381B42DA3DDC}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E2:E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="1">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="2">
-        <v>46741</v>
-      </c>
-      <c r="E2" s="2">
-        <v>46761</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="2">
-        <v>46421</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="1">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2">
-        <v>46753</v>
-      </c>
-      <c r="E3" s="2">
-        <v>46778</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="1">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="2">
-        <v>46722</v>
-      </c>
-      <c r="E4" s="2">
-        <v>46747</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="2">
-        <v>46754</v>
-      </c>
-      <c r="E5" s="2">
-        <v>46774</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="2">
-        <v>46449</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="1">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="2">
-        <v>46710</v>
-      </c>
-      <c r="E6" s="2">
-        <v>46732</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="1">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="2">
-        <v>46722</v>
-      </c>
-      <c r="E7" s="2">
-        <v>46745</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="1">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="2">
-        <v>46768</v>
-      </c>
-      <c r="E8" s="2">
-        <v>46790</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="2">
-        <v>46450</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="1">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="2">
-        <v>46705</v>
-      </c>
-      <c r="E9" s="2">
-        <v>46727</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="1">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="2">
-        <v>46758</v>
-      </c>
-      <c r="E10" s="2">
-        <v>46779</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="2">
-        <v>46475</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="1">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="2">
-        <v>46755</v>
-      </c>
-      <c r="E11" s="2">
-        <v>46774</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="2">
-        <v>46394</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="1">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="2">
-        <v>46752</v>
-      </c>
-      <c r="E12" s="2">
-        <v>46774</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="1">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="2">
-        <v>46767</v>
-      </c>
-      <c r="E13" s="2">
-        <v>46786</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="2">
-        <v>46454</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="1">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="2">
-        <v>46762</v>
-      </c>
-      <c r="E14" s="2">
-        <v>46790</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="1">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="2">
-        <v>46733</v>
-      </c>
-      <c r="E15" s="2">
-        <v>46756</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="1">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="2">
-        <v>46795</v>
-      </c>
-      <c r="E16" s="2">
-        <v>46815</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="2">
-        <v>46475</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="1">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="2">
-        <v>46755</v>
-      </c>
-      <c r="E17" s="2">
-        <v>46775</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="2">
-        <v>46314</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="1">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="2">
-        <v>46763</v>
-      </c>
-      <c r="E18" s="2">
-        <v>46791</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>